--- a/data/trans_orig/P14B23-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14B23-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D4937B1-C0FA-4783-8CF5-7AF02A5A5D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FAF1909-3A6F-4690-A58A-1E2000C81B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CBE02E20-463F-4FC2-937E-8DCCFCDC0DA2}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5C837789-4E88-47C8-972F-8655BAAFAA1F}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="237">
   <si>
     <t>Población cuya depresión o ansiedad le limita en 2012 (Tasa respuesta: 7,7%)</t>
   </si>
@@ -78,7 +78,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>73,27%</t>
+    <t>100,0%</t>
   </si>
   <si>
     <t>29,91%</t>
@@ -90,10 +90,10 @@
     <t>27,12%</t>
   </si>
   <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>58,76%</t>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
   </si>
   <si>
     <t>No</t>
@@ -102,12 +102,6 @@
     <t>77,89%</t>
   </si>
   <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
     <t>70,09%</t>
   </si>
   <si>
@@ -117,10 +111,10 @@
     <t>72,88%</t>
   </si>
   <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
   </si>
   <si>
     <t>100%</t>
@@ -132,19 +126,19 @@
     <t>23,03%</t>
   </si>
   <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
   </si>
   <si>
     <t>63,89%</t>
   </si>
   <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
   </si>
   <si>
     <t>45,98%</t>
@@ -153,31 +147,31 @@
     <t>31,13%</t>
   </si>
   <si>
-    <t>61,05%</t>
+    <t>61,31%</t>
   </si>
   <si>
     <t>76,97%</t>
   </si>
   <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
+    <t>53,27%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
   </si>
   <si>
     <t>36,11%</t>
   </si>
   <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
   </si>
   <si>
     <t>54,02%</t>
   </si>
   <si>
-    <t>38,95%</t>
+    <t>38,69%</t>
   </si>
   <si>
     <t>68,87%</t>
@@ -189,274 +183,274 @@
     <t>93,59%</t>
   </si>
   <si>
-    <t>79,03%</t>
+    <t>78,61%</t>
   </si>
   <si>
     <t>70,07%</t>
   </si>
   <si>
-    <t>58,73%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
   </si>
   <si>
     <t>76,65%</t>
   </si>
   <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>75,6%</t>
+  </si>
+  <si>
+    <t>63,2%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>70,4%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>62,46%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>69,38%</t>
+  </si>
+  <si>
+    <t>60,01%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>69,36%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
     <t>67,07%</t>
   </si>
   <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>64,43%</t>
+  </si>
+  <si>
+    <t>72,73%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
   </si>
   <si>
     <t>32,93%</t>
   </si>
   <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
-  </si>
-  <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>51,41%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>48,59%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>59,76%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>69,38%</t>
-  </si>
-  <si>
-    <t>59,48%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>59,6%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>70,77%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>70,42%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>66,87%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>68,8%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
     <t>31,2%</t>
   </si>
   <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -492,13 +486,13 @@
     <t>86,08%</t>
   </si>
   <si>
-    <t>41,82%</t>
+    <t>42,12%</t>
   </si>
   <si>
     <t>80,41%</t>
   </si>
   <si>
-    <t>49,27%</t>
+    <t>49,12%</t>
   </si>
   <si>
     <t>33,43%</t>
@@ -507,130 +501,130 @@
     <t>13,92%</t>
   </si>
   <si>
-    <t>58,18%</t>
+    <t>57,88%</t>
   </si>
   <si>
     <t>19,59%</t>
   </si>
   <si>
-    <t>50,73%</t>
+    <t>50,88%</t>
   </si>
   <si>
     <t>92,37%</t>
   </si>
   <si>
-    <t>63,5%</t>
+    <t>62,92%</t>
   </si>
   <si>
     <t>75,75%</t>
   </si>
   <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
+    <t>61,26%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
   </si>
   <si>
     <t>80,09%</t>
   </si>
   <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
   </si>
   <si>
     <t>7,63%</t>
   </si>
   <si>
-    <t>36,5%</t>
+    <t>37,08%</t>
   </si>
   <si>
     <t>24,25%</t>
   </si>
   <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
   </si>
   <si>
     <t>19,91%</t>
   </si>
   <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
   </si>
   <si>
     <t>95,06%</t>
   </si>
   <si>
-    <t>75,15%</t>
+    <t>79,87%</t>
   </si>
   <si>
     <t>87,51%</t>
   </si>
   <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
+    <t>75,45%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
   </si>
   <si>
     <t>89,49%</t>
   </si>
   <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
   </si>
   <si>
     <t>4,94%</t>
   </si>
   <si>
-    <t>24,85%</t>
+    <t>20,13%</t>
   </si>
   <si>
     <t>12,49%</t>
   </si>
   <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
   </si>
   <si>
     <t>10,51%</t>
   </si>
   <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
   </si>
   <si>
     <t>86,24%</t>
   </si>
   <si>
-    <t>61,14%</t>
+    <t>59,53%</t>
   </si>
   <si>
     <t>78,3%</t>
   </si>
   <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
+    <t>67,26%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
   </si>
   <si>
     <t>80,1%</t>
   </si>
   <si>
-    <t>70,26%</t>
+    <t>70,06%</t>
   </si>
   <si>
     <t>87,65%</t>
@@ -639,16 +633,16 @@
     <t>13,76%</t>
   </si>
   <si>
-    <t>38,86%</t>
+    <t>40,47%</t>
   </si>
   <si>
     <t>21,7%</t>
   </si>
   <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
   </si>
   <si>
     <t>19,9%</t>
@@ -657,109 +651,103 @@
     <t>12,35%</t>
   </si>
   <si>
-    <t>29,74%</t>
+    <t>29,94%</t>
   </si>
   <si>
     <t>86,54%</t>
   </si>
   <si>
-    <t>62,54%</t>
+    <t>61,53%</t>
   </si>
   <si>
     <t>89,58%</t>
   </si>
   <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
   </si>
   <si>
     <t>89,17%</t>
   </si>
   <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
   </si>
   <si>
     <t>13,46%</t>
   </si>
   <si>
-    <t>37,46%</t>
+    <t>38,47%</t>
   </si>
   <si>
     <t>10,42%</t>
   </si>
   <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
   </si>
   <si>
     <t>10,83%</t>
   </si>
   <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
   </si>
   <si>
     <t>89,39%</t>
   </si>
   <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
   </si>
   <si>
     <t>84,83%</t>
   </si>
   <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
   </si>
   <si>
     <t>85,79%</t>
   </si>
   <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
+    <t>81,74%</t>
   </si>
   <si>
     <t>10,61%</t>
   </si>
   <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
   </si>
   <si>
     <t>15,17%</t>
   </si>
   <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
   </si>
   <si>
     <t>14,21%</t>
   </si>
   <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
+    <t>18,26%</t>
   </si>
 </sst>
 </file>
@@ -1171,7 +1159,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE28D7AA-2943-4EC2-90F5-4257523A7A01}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6EBEE87-7BCA-4BF6-AE18-82BE76AD150F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1349,10 +1337,10 @@
         <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -1361,13 +1349,13 @@
         <v>4649</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M5" s="7">
         <v>7</v>
@@ -1376,13 +1364,13 @@
         <v>7531</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1397,13 +1385,13 @@
         <v>3699</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
         <v>6</v>
@@ -1412,13 +1400,13 @@
         <v>6633</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
         <v>10</v>
@@ -1427,18 +1415,18 @@
         <v>10333</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1450,13 +1438,13 @@
         <v>4814</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="H7" s="7">
         <v>16</v>
@@ -1465,13 +1453,13 @@
         <v>17109</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="M7" s="7">
         <v>21</v>
@@ -1480,13 +1468,13 @@
         <v>21923</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1501,13 +1489,13 @@
         <v>16088</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="H8" s="7">
         <v>9</v>
@@ -1516,13 +1504,13 @@
         <v>9670</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="M8" s="7">
         <v>23</v>
@@ -1531,13 +1519,13 @@
         <v>25758</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1552,13 +1540,13 @@
         <v>20902</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
         <v>25</v>
@@ -1567,13 +1555,13 @@
         <v>26779</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
         <v>44</v>
@@ -1582,18 +1570,18 @@
         <v>47681</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1605,13 +1593,13 @@
         <v>24542</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H10" s="7">
         <v>45</v>
@@ -1620,13 +1608,13 @@
         <v>47301</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="M10" s="7">
         <v>66</v>
@@ -1635,13 +1623,13 @@
         <v>71843</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1656,13 +1644,13 @@
         <v>1680</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H11" s="7">
         <v>20</v>
@@ -1671,13 +1659,13 @@
         <v>20205</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="M11" s="7">
         <v>22</v>
@@ -1686,13 +1674,13 @@
         <v>21885</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1707,13 +1695,13 @@
         <v>26222</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
         <v>65</v>
@@ -1722,13 +1710,13 @@
         <v>67506</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
         <v>88</v>
@@ -1737,18 +1725,18 @@
         <v>93728</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1760,13 +1748,13 @@
         <v>15569</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="H13" s="7">
         <v>43</v>
@@ -1775,13 +1763,13 @@
         <v>47225</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="M13" s="7">
         <v>57</v>
@@ -1790,13 +1778,13 @@
         <v>62795</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1811,13 +1799,13 @@
         <v>11786</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="H14" s="7">
         <v>26</v>
@@ -1826,13 +1814,13 @@
         <v>27497</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="M14" s="7">
         <v>37</v>
@@ -1841,13 +1829,13 @@
         <v>39282</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1862,13 +1850,13 @@
         <v>27355</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
         <v>69</v>
@@ -1877,13 +1865,13 @@
         <v>74722</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
         <v>94</v>
@@ -1892,18 +1880,18 @@
         <v>102077</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1915,13 +1903,13 @@
         <v>18456</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H16" s="7">
         <v>57</v>
@@ -1930,13 +1918,13 @@
         <v>59624</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M16" s="7">
         <v>75</v>
@@ -1945,13 +1933,13 @@
         <v>78078</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1966,13 +1954,13 @@
         <v>12429</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>21</v>
@@ -1981,13 +1969,13 @@
         <v>22029</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>32</v>
@@ -1996,13 +1984,13 @@
         <v>34459</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2017,13 +2005,13 @@
         <v>30885</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
         <v>78</v>
@@ -2032,13 +2020,13 @@
         <v>81653</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
         <v>107</v>
@@ -2047,18 +2035,18 @@
         <v>112537</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2070,13 +2058,13 @@
         <v>20959</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H19" s="7">
         <v>105</v>
@@ -2085,13 +2073,13 @@
         <v>111751</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M19" s="7">
         <v>123</v>
@@ -2100,13 +2088,13 @@
         <v>132709</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2121,13 +2109,13 @@
         <v>10509</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H20" s="7">
         <v>27</v>
@@ -2136,13 +2124,13 @@
         <v>28423</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M20" s="7">
         <v>35</v>
@@ -2151,13 +2139,13 @@
         <v>38933</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2172,13 +2160,13 @@
         <v>31468</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H21" s="7">
         <v>132</v>
@@ -2187,13 +2175,13 @@
         <v>140174</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M21" s="7">
         <v>158</v>
@@ -2202,13 +2190,13 @@
         <v>171642</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2225,13 +2213,13 @@
         <v>85158</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H22" s="7">
         <v>268</v>
@@ -2240,13 +2228,13 @@
         <v>284994</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M22" s="7">
         <v>345</v>
@@ -2255,13 +2243,13 @@
         <v>370152</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2276,13 +2264,13 @@
         <v>55373</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H23" s="7">
         <v>107</v>
@@ -2291,13 +2279,13 @@
         <v>112474</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M23" s="7">
         <v>156</v>
@@ -2306,13 +2294,13 @@
         <v>167847</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2327,13 +2315,13 @@
         <v>140531</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H24" s="7">
         <v>375</v>
@@ -2342,13 +2330,13 @@
         <v>397468</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M24" s="7">
         <v>501</v>
@@ -2357,18 +2345,18 @@
         <v>537999</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2390,7 +2378,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E394CB8-3684-4009-9100-05E95B2690B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CD9DB56-6DA9-4E29-90E6-2792E6E86AE5}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2407,7 +2395,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2514,13 +2502,13 @@
         <v>2380</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -2529,13 +2517,13 @@
         <v>9298</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -2544,13 +2532,13 @@
         <v>11678</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2568,10 +2556,10 @@
         <v>12</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2583,10 +2571,10 @@
         <v>12</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -2598,10 +2586,10 @@
         <v>12</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2616,13 +2604,13 @@
         <v>2380</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
         <v>8</v>
@@ -2631,13 +2619,13 @@
         <v>9298</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
         <v>10</v>
@@ -2646,18 +2634,18 @@
         <v>11678</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2669,13 +2657,13 @@
         <v>1924</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -2684,13 +2672,13 @@
         <v>6066</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -2699,13 +2687,13 @@
         <v>7991</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2720,13 +2708,13 @@
         <v>966</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -2735,13 +2723,13 @@
         <v>981</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -2750,13 +2738,13 @@
         <v>1947</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2771,13 +2759,13 @@
         <v>2890</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
         <v>7</v>
@@ -2786,13 +2774,13 @@
         <v>7047</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
         <v>10</v>
@@ -2801,18 +2789,18 @@
         <v>9938</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2824,13 +2812,13 @@
         <v>11143</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H10" s="7">
         <v>27</v>
@@ -2839,13 +2827,13 @@
         <v>25844</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M10" s="7">
         <v>38</v>
@@ -2854,13 +2842,13 @@
         <v>36987</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2875,13 +2863,13 @@
         <v>921</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H11" s="7">
         <v>9</v>
@@ -2890,13 +2878,13 @@
         <v>8275</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M11" s="7">
         <v>10</v>
@@ -2905,13 +2893,13 @@
         <v>9196</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2926,13 +2914,13 @@
         <v>12064</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
         <v>36</v>
@@ -2941,13 +2929,13 @@
         <v>34119</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
         <v>48</v>
@@ -2956,18 +2944,18 @@
         <v>46183</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2979,13 +2967,13 @@
         <v>19518</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H13" s="7">
         <v>47</v>
@@ -2994,13 +2982,13 @@
         <v>50552</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M13" s="7">
         <v>66</v>
@@ -3009,13 +2997,13 @@
         <v>70069</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3030,13 +3018,13 @@
         <v>1014</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -3045,13 +3033,13 @@
         <v>7217</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -3060,13 +3048,13 @@
         <v>8232</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3081,13 +3069,13 @@
         <v>20532</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
         <v>53</v>
@@ -3096,13 +3084,13 @@
         <v>57769</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
         <v>73</v>
@@ -3111,18 +3099,18 @@
         <v>78301</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3134,13 +3122,13 @@
         <v>18135</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H16" s="7">
         <v>50</v>
@@ -3149,13 +3137,13 @@
         <v>56497</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M16" s="7">
         <v>66</v>
@@ -3164,13 +3152,13 @@
         <v>74632</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3185,13 +3173,13 @@
         <v>2894</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H17" s="7">
         <v>14</v>
@@ -3200,13 +3188,13 @@
         <v>15653</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M17" s="7">
         <v>16</v>
@@ -3215,13 +3203,13 @@
         <v>18547</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3236,13 +3224,13 @@
         <v>21029</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
         <v>64</v>
@@ -3251,13 +3239,13 @@
         <v>72150</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
         <v>82</v>
@@ -3266,18 +3254,18 @@
         <v>93179</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3289,13 +3277,13 @@
         <v>13791</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H19" s="7">
         <v>77</v>
@@ -3304,13 +3292,13 @@
         <v>89660</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M19" s="7">
         <v>93</v>
@@ -3319,13 +3307,13 @@
         <v>103451</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3340,13 +3328,13 @@
         <v>2144</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
@@ -3355,13 +3343,13 @@
         <v>10425</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M20" s="7">
         <v>11</v>
@@ -3370,13 +3358,13 @@
         <v>12569</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3391,13 +3379,13 @@
         <v>15935</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H21" s="7">
         <v>86</v>
@@ -3406,13 +3394,13 @@
         <v>100085</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M21" s="7">
         <v>104</v>
@@ -3421,13 +3409,13 @@
         <v>116020</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3444,13 +3432,13 @@
         <v>66891</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H22" s="7">
         <v>215</v>
@@ -3459,13 +3447,13 @@
         <v>237916</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M22" s="7">
         <v>281</v>
@@ -3474,13 +3462,13 @@
         <v>304808</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>231</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3495,13 +3483,13 @@
         <v>7939</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H23" s="7">
         <v>39</v>
@@ -3510,13 +3498,13 @@
         <v>42552</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="M23" s="7">
         <v>46</v>
@@ -3525,13 +3513,13 @@
         <v>50490</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>239</v>
+        <v>186</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3546,13 +3534,13 @@
         <v>74830</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H24" s="7">
         <v>254</v>
@@ -3561,13 +3549,13 @@
         <v>280468</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M24" s="7">
         <v>327</v>
@@ -3576,18 +3564,18 @@
         <v>355298</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14B23-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14B23-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FAF1909-3A6F-4690-A58A-1E2000C81B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{158927D8-D3C0-476F-9F95-BF747FAEDE8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5C837789-4E88-47C8-972F-8655BAAFAA1F}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{B4CD934E-E347-4F58-82BD-55416DE1F7C7}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="239">
   <si>
     <t>Población cuya depresión o ansiedad le limita en 2012 (Tasa respuesta: 7,7%)</t>
   </si>
@@ -78,43 +78,49 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>77,89%</t>
-  </si>
-  <si>
     <t>70,09%</t>
   </si>
   <si>
-    <t>25,63%</t>
+    <t>16,78%</t>
   </si>
   <si>
     <t>72,88%</t>
   </si>
   <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
   </si>
   <si>
     <t>100%</t>
@@ -126,55 +132,55 @@
     <t>23,03%</t>
   </si>
   <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
   </si>
   <si>
     <t>63,89%</t>
   </si>
   <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
+    <t>42,98%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
   </si>
   <si>
     <t>45,98%</t>
   </si>
   <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>59,75%</t>
   </si>
   <si>
     <t>76,97%</t>
   </si>
   <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
+    <t>52,97%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
   </si>
   <si>
     <t>36,11%</t>
   </si>
   <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>57,02%</t>
   </si>
   <si>
     <t>54,02%</t>
   </si>
   <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>68,87%</t>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -183,49 +189,49 @@
     <t>93,59%</t>
   </si>
   <si>
-    <t>78,61%</t>
+    <t>76,15%</t>
   </si>
   <si>
     <t>70,07%</t>
   </si>
   <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
   </si>
   <si>
     <t>76,65%</t>
   </si>
   <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
   </si>
   <si>
     <t>6,41%</t>
   </si>
   <si>
-    <t>21,39%</t>
+    <t>23,85%</t>
   </si>
   <si>
     <t>29,93%</t>
   </si>
   <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
   </si>
   <si>
     <t>23,35%</t>
   </si>
   <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -234,55 +240,55 @@
     <t>56,92%</t>
   </si>
   <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>75,6%</t>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>76,52%</t>
   </si>
   <si>
     <t>63,2%</t>
   </si>
   <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>74,6%</t>
   </si>
   <si>
     <t>61,52%</t>
   </si>
   <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
+    <t>50,79%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
   </si>
   <si>
     <t>43,08%</t>
   </si>
   <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>62,56%</t>
   </si>
   <si>
     <t>36,8%</t>
   </si>
   <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
   </si>
   <si>
     <t>38,48%</t>
   </si>
   <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>49,21%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -291,55 +297,55 @@
     <t>59,76%</t>
   </si>
   <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
   </si>
   <si>
     <t>73,02%</t>
   </si>
   <si>
-    <t>62,46%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
   </si>
   <si>
     <t>69,38%</t>
   </si>
   <si>
-    <t>60,01%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
   </si>
   <si>
     <t>40,24%</t>
   </si>
   <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
   </si>
   <si>
     <t>26,98%</t>
   </si>
   <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
   </si>
   <si>
     <t>30,62%</t>
   </si>
   <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>39,99%</t>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -348,115 +354,115 @@
     <t>66,6%</t>
   </si>
   <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
   </si>
   <si>
     <t>79,72%</t>
   </si>
   <si>
-    <t>71,85%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
   </si>
   <si>
     <t>77,32%</t>
   </si>
   <si>
-    <t>69,36%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
+    <t>69,94%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
   </si>
   <si>
     <t>33,4%</t>
   </si>
   <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
   </si>
   <si>
     <t>20,28%</t>
   </si>
   <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
   </si>
   <si>
     <t>22,68%</t>
   </si>
   <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
   </si>
   <si>
     <t>60,6%</t>
   </si>
   <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
+    <t>52,68%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
   </si>
   <si>
     <t>71,7%</t>
   </si>
   <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
   </si>
   <si>
     <t>68,8%</t>
   </si>
   <si>
-    <t>64,43%</t>
-  </si>
-  <si>
-    <t>72,73%</t>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
   </si>
   <si>
     <t>39,4%</t>
   </si>
   <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>48,51%</t>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
   </si>
   <si>
     <t>28,3%</t>
   </si>
   <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
   </si>
   <si>
     <t>31,2%</t>
   </si>
   <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuya depresión o ansiedad le limita en 2015 (Tasa respuesta: 4,98%)</t>
+    <t>Población cuya depresión o ansiedad le limita en 2016 (Tasa respuesta: 4,98%)</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -486,13 +492,13 @@
     <t>86,08%</t>
   </si>
   <si>
-    <t>42,12%</t>
+    <t>40,93%</t>
   </si>
   <si>
     <t>80,41%</t>
   </si>
   <si>
-    <t>49,12%</t>
+    <t>49,37%</t>
   </si>
   <si>
     <t>33,43%</t>
@@ -501,169 +507,169 @@
     <t>13,92%</t>
   </si>
   <si>
-    <t>57,88%</t>
+    <t>59,07%</t>
   </si>
   <si>
     <t>19,59%</t>
   </si>
   <si>
-    <t>50,88%</t>
+    <t>50,63%</t>
   </si>
   <si>
     <t>92,37%</t>
   </si>
   <si>
-    <t>62,92%</t>
+    <t>67,24%</t>
   </si>
   <si>
     <t>75,75%</t>
   </si>
   <si>
-    <t>61,26%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
   </si>
   <si>
     <t>80,09%</t>
   </si>
   <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
   </si>
   <si>
     <t>7,63%</t>
   </si>
   <si>
-    <t>37,08%</t>
+    <t>32,76%</t>
   </si>
   <si>
     <t>24,25%</t>
   </si>
   <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
   </si>
   <si>
     <t>19,91%</t>
   </si>
   <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
   </si>
   <si>
     <t>95,06%</t>
   </si>
   <si>
-    <t>79,87%</t>
+    <t>69,96%</t>
   </si>
   <si>
     <t>87,51%</t>
   </si>
   <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
   </si>
   <si>
     <t>89,49%</t>
   </si>
   <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
   </si>
   <si>
     <t>4,94%</t>
   </si>
   <si>
-    <t>20,13%</t>
+    <t>30,04%</t>
   </si>
   <si>
     <t>12,49%</t>
   </si>
   <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
   </si>
   <si>
     <t>10,51%</t>
   </si>
   <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
   </si>
   <si>
     <t>86,24%</t>
   </si>
   <si>
-    <t>59,53%</t>
+    <t>60,69%</t>
   </si>
   <si>
     <t>78,3%</t>
   </si>
   <si>
-    <t>67,26%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
+    <t>66,46%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
   </si>
   <si>
     <t>80,1%</t>
   </si>
   <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
   </si>
   <si>
     <t>13,76%</t>
   </si>
   <si>
-    <t>40,47%</t>
+    <t>39,31%</t>
   </si>
   <si>
     <t>21,7%</t>
   </si>
   <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
   </si>
   <si>
     <t>19,9%</t>
   </si>
   <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
   </si>
   <si>
     <t>86,54%</t>
   </si>
   <si>
-    <t>61,53%</t>
+    <t>63,45%</t>
   </si>
   <si>
     <t>89,58%</t>
   </si>
   <si>
-    <t>80,95%</t>
+    <t>82,15%</t>
   </si>
   <si>
     <t>94,71%</t>
@@ -672,16 +678,16 @@
     <t>89,17%</t>
   </si>
   <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
   </si>
   <si>
     <t>13,46%</t>
   </si>
   <si>
-    <t>38,47%</t>
+    <t>36,55%</t>
   </si>
   <si>
     <t>10,42%</t>
@@ -690,64 +696,64 @@
     <t>5,29%</t>
   </si>
   <si>
-    <t>19,05%</t>
+    <t>17,85%</t>
   </si>
   <si>
     <t>10,83%</t>
   </si>
   <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
   </si>
   <si>
     <t>89,39%</t>
   </si>
   <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
+    <t>95,87%</t>
   </si>
   <si>
     <t>84,83%</t>
   </si>
   <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
   </si>
   <si>
     <t>85,79%</t>
   </si>
   <si>
-    <t>81,74%</t>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
   </si>
   <si>
     <t>10,61%</t>
   </si>
   <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
+    <t>4,13%</t>
   </si>
   <si>
     <t>15,17%</t>
   </si>
   <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
   </si>
   <si>
     <t>14,21%</t>
   </si>
   <si>
-    <t>18,26%</t>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
   </si>
 </sst>
 </file>
@@ -1159,7 +1165,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6EBEE87-7BCA-4BF6-AE18-82BE76AD150F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF0B9927-BEE2-4832-99BE-897B73513839}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1337,10 +1343,10 @@
         <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -1349,13 +1355,13 @@
         <v>4649</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="M5" s="7">
         <v>7</v>
@@ -1364,13 +1370,13 @@
         <v>7531</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1385,13 +1391,13 @@
         <v>3699</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>6</v>
@@ -1400,13 +1406,13 @@
         <v>6633</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>10</v>
@@ -1415,18 +1421,18 @@
         <v>10333</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1438,13 +1444,13 @@
         <v>4814</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H7" s="7">
         <v>16</v>
@@ -1453,13 +1459,13 @@
         <v>17109</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M7" s="7">
         <v>21</v>
@@ -1468,13 +1474,13 @@
         <v>21923</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1489,13 +1495,13 @@
         <v>16088</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H8" s="7">
         <v>9</v>
@@ -1504,13 +1510,13 @@
         <v>9670</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M8" s="7">
         <v>23</v>
@@ -1519,13 +1525,13 @@
         <v>25758</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1540,13 +1546,13 @@
         <v>20902</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>25</v>
@@ -1555,13 +1561,13 @@
         <v>26779</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>44</v>
@@ -1570,18 +1576,18 @@
         <v>47681</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1593,13 +1599,13 @@
         <v>24542</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H10" s="7">
         <v>45</v>
@@ -1608,13 +1614,13 @@
         <v>47301</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M10" s="7">
         <v>66</v>
@@ -1623,13 +1629,13 @@
         <v>71843</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1644,13 +1650,13 @@
         <v>1680</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H11" s="7">
         <v>20</v>
@@ -1659,13 +1665,13 @@
         <v>20205</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M11" s="7">
         <v>22</v>
@@ -1674,13 +1680,13 @@
         <v>21885</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1695,13 +1701,13 @@
         <v>26222</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>65</v>
@@ -1710,13 +1716,13 @@
         <v>67506</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>88</v>
@@ -1725,18 +1731,18 @@
         <v>93728</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1748,13 +1754,13 @@
         <v>15569</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H13" s="7">
         <v>43</v>
@@ -1763,13 +1769,13 @@
         <v>47225</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M13" s="7">
         <v>57</v>
@@ -1778,13 +1784,13 @@
         <v>62795</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1799,13 +1805,13 @@
         <v>11786</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H14" s="7">
         <v>26</v>
@@ -1814,13 +1820,13 @@
         <v>27497</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M14" s="7">
         <v>37</v>
@@ -1829,13 +1835,13 @@
         <v>39282</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1850,13 +1856,13 @@
         <v>27355</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>69</v>
@@ -1865,13 +1871,13 @@
         <v>74722</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>94</v>
@@ -1880,18 +1886,18 @@
         <v>102077</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1903,13 +1909,13 @@
         <v>18456</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H16" s="7">
         <v>57</v>
@@ -1918,13 +1924,13 @@
         <v>59624</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M16" s="7">
         <v>75</v>
@@ -1933,13 +1939,13 @@
         <v>78078</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1954,13 +1960,13 @@
         <v>12429</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>21</v>
@@ -1969,13 +1975,13 @@
         <v>22029</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>32</v>
@@ -1984,13 +1990,13 @@
         <v>34459</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2005,13 +2011,13 @@
         <v>30885</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
         <v>78</v>
@@ -2020,13 +2026,13 @@
         <v>81653</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
         <v>107</v>
@@ -2035,18 +2041,18 @@
         <v>112537</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2058,13 +2064,13 @@
         <v>20959</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H19" s="7">
         <v>105</v>
@@ -2073,13 +2079,13 @@
         <v>111751</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M19" s="7">
         <v>123</v>
@@ -2088,13 +2094,13 @@
         <v>132709</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2109,13 +2115,13 @@
         <v>10509</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H20" s="7">
         <v>27</v>
@@ -2124,13 +2130,13 @@
         <v>28423</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M20" s="7">
         <v>35</v>
@@ -2139,13 +2145,13 @@
         <v>38933</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2160,13 +2166,13 @@
         <v>31468</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>132</v>
@@ -2175,13 +2181,13 @@
         <v>140174</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>158</v>
@@ -2190,13 +2196,13 @@
         <v>171642</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2213,13 +2219,13 @@
         <v>85158</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H22" s="7">
         <v>268</v>
@@ -2228,13 +2234,13 @@
         <v>284994</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M22" s="7">
         <v>345</v>
@@ -2243,13 +2249,13 @@
         <v>370152</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2264,13 +2270,13 @@
         <v>55373</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H23" s="7">
         <v>107</v>
@@ -2279,13 +2285,13 @@
         <v>112474</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M23" s="7">
         <v>156</v>
@@ -2294,13 +2300,13 @@
         <v>167847</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2315,13 +2321,13 @@
         <v>140531</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H24" s="7">
         <v>375</v>
@@ -2330,13 +2336,13 @@
         <v>397468</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M24" s="7">
         <v>501</v>
@@ -2345,18 +2351,18 @@
         <v>537999</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2378,7 +2384,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CD9DB56-6DA9-4E29-90E6-2792E6E86AE5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E871A733-E73C-4613-9E44-985DE6B62C37}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2395,7 +2401,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2502,13 +2508,13 @@
         <v>2380</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -2517,13 +2523,13 @@
         <v>9298</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -2532,13 +2538,13 @@
         <v>11678</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2556,10 +2562,10 @@
         <v>12</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2571,10 +2577,10 @@
         <v>12</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -2586,10 +2592,10 @@
         <v>12</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2604,13 +2610,13 @@
         <v>2380</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>8</v>
@@ -2619,13 +2625,13 @@
         <v>9298</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>10</v>
@@ -2634,18 +2640,18 @@
         <v>11678</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2657,13 +2663,13 @@
         <v>1924</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -2672,13 +2678,13 @@
         <v>6066</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -2687,13 +2693,13 @@
         <v>7991</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2708,13 +2714,13 @@
         <v>966</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -2723,13 +2729,13 @@
         <v>981</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -2738,13 +2744,13 @@
         <v>1947</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2759,13 +2765,13 @@
         <v>2890</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>7</v>
@@ -2774,13 +2780,13 @@
         <v>7047</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>10</v>
@@ -2789,18 +2795,18 @@
         <v>9938</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2812,13 +2818,13 @@
         <v>11143</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H10" s="7">
         <v>27</v>
@@ -2827,13 +2833,13 @@
         <v>25844</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M10" s="7">
         <v>38</v>
@@ -2842,13 +2848,13 @@
         <v>36987</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2863,13 +2869,13 @@
         <v>921</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H11" s="7">
         <v>9</v>
@@ -2878,13 +2884,13 @@
         <v>8275</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="M11" s="7">
         <v>10</v>
@@ -2893,13 +2899,13 @@
         <v>9196</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2914,13 +2920,13 @@
         <v>12064</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>36</v>
@@ -2929,13 +2935,13 @@
         <v>34119</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>48</v>
@@ -2944,18 +2950,18 @@
         <v>46183</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2967,13 +2973,13 @@
         <v>19518</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H13" s="7">
         <v>47</v>
@@ -2982,13 +2988,13 @@
         <v>50552</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M13" s="7">
         <v>66</v>
@@ -2997,13 +3003,13 @@
         <v>70069</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3018,13 +3024,13 @@
         <v>1014</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -3033,13 +3039,13 @@
         <v>7217</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -3048,13 +3054,13 @@
         <v>8232</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3069,13 +3075,13 @@
         <v>20532</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>53</v>
@@ -3084,13 +3090,13 @@
         <v>57769</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>73</v>
@@ -3099,18 +3105,18 @@
         <v>78301</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3122,13 +3128,13 @@
         <v>18135</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H16" s="7">
         <v>50</v>
@@ -3137,13 +3143,13 @@
         <v>56497</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M16" s="7">
         <v>66</v>
@@ -3152,13 +3158,13 @@
         <v>74632</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3173,13 +3179,13 @@
         <v>2894</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H17" s="7">
         <v>14</v>
@@ -3188,13 +3194,13 @@
         <v>15653</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M17" s="7">
         <v>16</v>
@@ -3203,13 +3209,13 @@
         <v>18547</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3224,13 +3230,13 @@
         <v>21029</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
         <v>64</v>
@@ -3239,13 +3245,13 @@
         <v>72150</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
         <v>82</v>
@@ -3254,18 +3260,18 @@
         <v>93179</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3277,13 +3283,13 @@
         <v>13791</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H19" s="7">
         <v>77</v>
@@ -3292,13 +3298,13 @@
         <v>89660</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M19" s="7">
         <v>93</v>
@@ -3307,13 +3313,13 @@
         <v>103451</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3328,13 +3334,13 @@
         <v>2144</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
@@ -3343,13 +3349,13 @@
         <v>10425</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M20" s="7">
         <v>11</v>
@@ -3358,13 +3364,13 @@
         <v>12569</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3379,13 +3385,13 @@
         <v>15935</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>86</v>
@@ -3394,13 +3400,13 @@
         <v>100085</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>104</v>
@@ -3409,13 +3415,13 @@
         <v>116020</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3432,13 +3438,13 @@
         <v>66891</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>222</v>
+        <v>107</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H22" s="7">
         <v>215</v>
@@ -3447,13 +3453,13 @@
         <v>237916</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M22" s="7">
         <v>281</v>
@@ -3462,13 +3468,13 @@
         <v>304808</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>178</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3483,13 +3489,13 @@
         <v>7939</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>231</v>
+        <v>116</v>
       </c>
       <c r="H23" s="7">
         <v>39</v>
@@ -3498,13 +3504,13 @@
         <v>42552</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M23" s="7">
         <v>46</v>
@@ -3513,13 +3519,13 @@
         <v>50490</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>186</v>
+        <v>237</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3534,13 +3540,13 @@
         <v>74830</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H24" s="7">
         <v>254</v>
@@ -3549,13 +3555,13 @@
         <v>280468</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M24" s="7">
         <v>327</v>
@@ -3564,18 +3570,18 @@
         <v>355298</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
